--- a/processed_sheets/cleaned_NBCE_The Voice S28_Fall_25_RFP Template (Samsung Ads) 5.13_High_Impact.xlsx
+++ b/processed_sheets/cleaned_NBCE_The Voice S28_Fall_25_RFP Template (Samsung Ads) 5.13_High_Impact.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="High Impact" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="High Impact" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -129,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HighImpactTable" displayName="HighImpactTable" ref="A1:Y3" headerRowCount="1">
-  <autoFilter ref="A1:Y3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HighImpactTable" displayName="HighImpactTable" ref="A1:Y4" headerRowCount="1">
+  <autoFilter ref="A1:Y4"/>
   <tableColumns count="25">
     <tableColumn id="1" name="Site Name"/>
     <tableColumn id="2" name="Package Name"/>
@@ -451,7 +452,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,12 +661,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-26 00:00:00</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-09-26 00:00:00</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -717,13 +736,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="U3">
-        <f>SUM(U2)</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>SUM(V2)</f>
-        <v/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>13813169</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>203744</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Free-Form Description: Please use this space to fill in details specific to target audience and any special needs for campaign execution such as minimum lead time for creative deliverables, other available takeover opportunities or potential beta test/first to market details</t>
+        </is>
       </c>
     </row>
   </sheetData>
